--- a/data/trans_orig/P57GLOBAL_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57GLOBAL_R-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>301952</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>279291</v>
+        <v>280452</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>322630</v>
+        <v>325245</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6121964931133888</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5662523695592854</v>
+        <v>0.5686061419148246</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6541216519569596</v>
+        <v>0.6594231683959678</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>305</v>
@@ -765,19 +765,19 @@
         <v>295334</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>272671</v>
+        <v>275018</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>314778</v>
+        <v>313960</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6317453661931293</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.583267075442266</v>
+        <v>0.5882872219176367</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6733368094703984</v>
+        <v>0.6715884117376926</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>610</v>
@@ -786,19 +786,19 @@
         <v>597286</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>564956</v>
+        <v>565521</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>623617</v>
+        <v>625648</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.621709072404433</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5880573208519445</v>
+        <v>0.5886449918632336</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6491167385901844</v>
+        <v>0.6512304550085902</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>191275</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>170597</v>
+        <v>167982</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>213936</v>
+        <v>212775</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3878035068866112</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3458783480430405</v>
+        <v>0.3405768316040322</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4337476304407147</v>
+        <v>0.4313938580851754</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>184</v>
@@ -836,19 +836,19 @@
         <v>172155</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>152711</v>
+        <v>153529</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>194818</v>
+        <v>192471</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3682546338068708</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3266631905296015</v>
+        <v>0.3284115882623075</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4167329245577341</v>
+        <v>0.4117127780823634</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>377</v>
@@ -857,19 +857,19 @@
         <v>363430</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>337099</v>
+        <v>335068</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>395760</v>
+        <v>395195</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.378290927595567</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3508832614098157</v>
+        <v>0.3487695449914102</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4119426791480555</v>
+        <v>0.4113550081367665</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>498976</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>472472</v>
+        <v>476030</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>525795</v>
+        <v>524944</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.678427239932846</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.642391674962595</v>
+        <v>0.6472295729591451</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7148916576106945</v>
+        <v>0.7137342368243285</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>406</v>
@@ -982,19 +982,19 @@
         <v>432124</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>406907</v>
+        <v>407664</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>456956</v>
+        <v>454403</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.693231182165762</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6527767754167857</v>
+        <v>0.6539916529890023</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7330665781950485</v>
+        <v>0.7289708892379831</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>884</v>
@@ -1003,19 +1003,19 @@
         <v>931100</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>896075</v>
+        <v>895419</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>964446</v>
+        <v>963214</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6852183491897337</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6594424707264734</v>
+        <v>0.6589596948957006</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7097586257118964</v>
+        <v>0.7088514416788041</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>236513</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>209694</v>
+        <v>210545</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>263017</v>
+        <v>259459</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.321572760067154</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2851083423893054</v>
+        <v>0.2862657631756706</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3576083250374051</v>
+        <v>0.352770427040855</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>183</v>
@@ -1053,19 +1053,19 @@
         <v>191224</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>166392</v>
+        <v>168945</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>216441</v>
+        <v>215684</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.306768817834238</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2669334218049515</v>
+        <v>0.2710291107620169</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3472232245832149</v>
+        <v>0.3460083470109977</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>408</v>
@@ -1074,19 +1074,19 @@
         <v>427737</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>394391</v>
+        <v>395623</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>462762</v>
+        <v>463418</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3147816508102663</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2902413742881033</v>
+        <v>0.2911485583211958</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3405575292735263</v>
+        <v>0.3410403051042992</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>448380</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>425125</v>
+        <v>422260</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>470767</v>
+        <v>470431</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7032495691591765</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6667758020224549</v>
+        <v>0.6622823213188477</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7383620327552463</v>
+        <v>0.7378350197148447</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>466</v>
@@ -1199,19 +1199,19 @@
         <v>490264</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>460482</v>
+        <v>467346</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>512195</v>
+        <v>514224</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7118029401196616</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6685624209711488</v>
+        <v>0.6785281520944987</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7436435065905147</v>
+        <v>0.7465891452446713</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>896</v>
@@ -1220,19 +1220,19 @@
         <v>938644</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>905141</v>
+        <v>904624</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>971116</v>
+        <v>970526</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7076912835581964</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6824318664847203</v>
+        <v>0.682041845887976</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7321735677772528</v>
+        <v>0.7317288055644959</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>189203</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>166816</v>
+        <v>167152</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>212458</v>
+        <v>215323</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2967504308408235</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2616379672447539</v>
+        <v>0.2621649802851553</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3332241979775452</v>
+        <v>0.3377176786811523</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>191</v>
@@ -1270,19 +1270,19 @@
         <v>198500</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>176569</v>
+        <v>174540</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>228282</v>
+        <v>221418</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2881970598803384</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2563564934094852</v>
+        <v>0.2534108547553292</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3314375790288511</v>
+        <v>0.3214718479055014</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>373</v>
@@ -1291,19 +1291,19 @@
         <v>387703</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>355231</v>
+        <v>355821</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>421206</v>
+        <v>421723</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2923087164418035</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2678264322227468</v>
+        <v>0.268271194435504</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3175681335152795</v>
+        <v>0.3179581541120239</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>377779</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>356772</v>
+        <v>357159</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>397961</v>
+        <v>397377</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7298710419902593</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6892843549635564</v>
+        <v>0.6900328746911848</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7688624739868226</v>
+        <v>0.7677351730435595</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>354</v>
@@ -1416,19 +1416,19 @@
         <v>367518</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>347701</v>
+        <v>347678</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>387727</v>
+        <v>389114</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7127384227884657</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.674307466152278</v>
+        <v>0.6742614628576201</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7519306641836599</v>
+        <v>0.7546213158654722</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>709</v>
@@ -1437,19 +1437,19 @@
         <v>745297</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>713604</v>
+        <v>716101</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>774659</v>
+        <v>774120</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7213209410467263</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6906470829595073</v>
+        <v>0.6930638594538642</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7497385561316473</v>
+        <v>0.7492171063156883</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>139818</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>119636</v>
+        <v>120220</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>160825</v>
+        <v>160438</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2701289580097407</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2311375260131774</v>
+        <v>0.2322648269564405</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3107156450364436</v>
+        <v>0.3099671253088152</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>148</v>
@@ -1487,19 +1487,19 @@
         <v>148124</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>127915</v>
+        <v>126528</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>167941</v>
+        <v>167964</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2872615772115343</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.24806933581634</v>
+        <v>0.2453786841345277</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3256925338477221</v>
+        <v>0.3257385371423797</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>276</v>
@@ -1508,19 +1508,19 @@
         <v>287942</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>258580</v>
+        <v>259119</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>319635</v>
+        <v>317138</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2786790589532737</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2502614438683527</v>
+        <v>0.2507828936843117</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3093529170404927</v>
+        <v>0.3069361405461359</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>279231</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>261242</v>
+        <v>261318</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>295043</v>
+        <v>296295</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7236465571399401</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6770276103417133</v>
+        <v>0.6772248797881242</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7646242722422573</v>
+        <v>0.7678706286674268</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>306</v>
@@ -1633,19 +1633,19 @@
         <v>312655</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>295369</v>
+        <v>296915</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>329162</v>
+        <v>329819</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7739241032325219</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.731137474905906</v>
+        <v>0.7349643178747968</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8147859427241471</v>
+        <v>0.8164115098599408</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>590</v>
@@ -1654,19 +1654,19 @@
         <v>591885</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>564905</v>
+        <v>567864</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>613305</v>
+        <v>617056</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7493620507091979</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.715203636029515</v>
+        <v>0.7189495874479176</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7764804103018444</v>
+        <v>0.7812300803165604</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>106635</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>90823</v>
+        <v>89571</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>124624</v>
+        <v>124548</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.27635344286006</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2353757277577427</v>
+        <v>0.2321293713325732</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3229723896582868</v>
+        <v>0.3227751202118758</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>90</v>
@@ -1704,19 +1704,19 @@
         <v>91331</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>74824</v>
+        <v>74167</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>108617</v>
+        <v>107071</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2260758967674781</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1852140572758529</v>
+        <v>0.183588490140059</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.268862525094094</v>
+        <v>0.265035682125203</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>197</v>
@@ -1725,19 +1725,19 @@
         <v>197967</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>176547</v>
+        <v>172796</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>224947</v>
+        <v>221988</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2506379492908021</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2235195896981557</v>
+        <v>0.2187699196834396</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.284796363970485</v>
+        <v>0.2810504125520825</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>226699</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>211893</v>
+        <v>211548</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>239191</v>
+        <v>239303</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.7794828333500591</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7285765706889955</v>
+        <v>0.7273878361752465</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8224368702829032</v>
+        <v>0.8228223093036124</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>289</v>
@@ -1850,19 +1850,19 @@
         <v>268906</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>253500</v>
+        <v>254025</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>281335</v>
+        <v>283181</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7841345092792545</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7392080784366507</v>
+        <v>0.7407394355675855</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8203763540059278</v>
+        <v>0.8257599864366615</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>524</v>
@@ -1871,19 +1871,19 @@
         <v>495605</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>475214</v>
+        <v>474566</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>514676</v>
+        <v>514557</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.7819998792972011</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.749826271688091</v>
+        <v>0.7488030379604853</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8120912350836983</v>
+        <v>0.8119036656935864</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>64133</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>51641</v>
+        <v>51529</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>78939</v>
+        <v>79284</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2205171666499409</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1775631297170967</v>
+        <v>0.1771776906963877</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2714234293110045</v>
+        <v>0.2726121638247536</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>82</v>
@@ -1921,19 +1921,19 @@
         <v>74028</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>61599</v>
+        <v>59753</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>89434</v>
+        <v>88909</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2158654907207455</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1796236459940722</v>
+        <v>0.1742400135633385</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2607919215633493</v>
+        <v>0.2592605644324146</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>149</v>
@@ -1942,19 +1942,19 @@
         <v>138161</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>119090</v>
+        <v>119209</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>158552</v>
+        <v>159200</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2180001207027989</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1879087649163018</v>
+        <v>0.1880963343064135</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.250173728311909</v>
+        <v>0.2511969620395147</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>170346</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>157883</v>
+        <v>158260</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>180301</v>
+        <v>180133</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8116242149562507</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7522405482679009</v>
+        <v>0.7540373808758638</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.859056747777748</v>
+        <v>0.8582528500796193</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>237</v>
@@ -2067,19 +2067,19 @@
         <v>273865</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>258577</v>
+        <v>259249</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>287525</v>
+        <v>287911</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8201808287260314</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7743953335371198</v>
+        <v>0.7764081296516933</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8610899101396849</v>
+        <v>0.8622458040522316</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>416</v>
@@ -2088,19 +2088,19 @@
         <v>444211</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>424403</v>
+        <v>427209</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>461602</v>
+        <v>461943</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8168782955306163</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7804523689609152</v>
+        <v>0.7856132601302466</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8488593245508539</v>
+        <v>0.8494869262650488</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>39537</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>29582</v>
+        <v>29750</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>52000</v>
+        <v>51623</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1883757850437494</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.140943252222252</v>
+        <v>0.1417471499203808</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.247759451732099</v>
+        <v>0.2459626191241362</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>53</v>
@@ -2138,19 +2138,19 @@
         <v>60043</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>46383</v>
+        <v>45997</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>75331</v>
+        <v>74659</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1798191712739687</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.138910089860315</v>
+        <v>0.1377541959477682</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2256046664628803</v>
+        <v>0.2235918703483068</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>94</v>
@@ -2159,19 +2159,19 @@
         <v>99580</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>82189</v>
+        <v>81848</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>119388</v>
+        <v>116582</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1831217044693837</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1511406754491464</v>
+        <v>0.1505130737349512</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2195476310390848</v>
+        <v>0.2143867398697533</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>2303361</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2251253</v>
+        <v>2251537</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2354612</v>
+        <v>2356589</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.7042892946068394</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6883563924830234</v>
+        <v>0.688443060098694</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.7199601744754434</v>
+        <v>0.720564399926435</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2363</v>
@@ -2284,19 +2284,19 @@
         <v>2440666</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2388600</v>
+        <v>2391285</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2495223</v>
+        <v>2489051</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.7229309436597393</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.7075089307105324</v>
+        <v>0.7083042491732718</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.739090811669768</v>
+        <v>0.7372627195006702</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4629</v>
@@ -2305,19 +2305,19 @@
         <v>4744028</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4663278</v>
+        <v>4666749</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>4818640</v>
+        <v>4821884</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.7137582014626049</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.701609028763891</v>
+        <v>0.7021312293361965</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7249838697388113</v>
+        <v>0.7254719673238966</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>967115</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>915864</v>
+        <v>913887</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1019223</v>
+        <v>1018939</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2957107053931606</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2800398255245568</v>
+        <v>0.279435600073565</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3116436075169767</v>
+        <v>0.311556939901306</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>931</v>
@@ -2355,19 +2355,19 @@
         <v>935405</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>880848</v>
+        <v>887020</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>987471</v>
+        <v>984786</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2770690563402606</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2609091883302322</v>
+        <v>0.26273728049933</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2924910692894676</v>
+        <v>0.2916957508267282</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1874</v>
@@ -2376,19 +2376,19 @@
         <v>1902520</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1827908</v>
+        <v>1824664</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1983270</v>
+        <v>1979799</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.286241798537395</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2750161302611886</v>
+        <v>0.2745280326761033</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.298390971236109</v>
+        <v>0.2978687706638035</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>272265</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>253219</v>
+        <v>252828</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>296221</v>
+        <v>294623</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.607388734510806</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5648983512658008</v>
+        <v>0.5640266681269345</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6608315228633573</v>
+        <v>0.6572667103044882</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>273</v>
@@ -2744,19 +2744,19 @@
         <v>281338</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>261853</v>
+        <v>263037</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>301962</v>
+        <v>302494</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6584175608320469</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6128178551023344</v>
+        <v>0.6155886676207489</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7066854893599045</v>
+        <v>0.7079287005169331</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>541</v>
@@ -2765,19 +2765,19 @@
         <v>553603</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>526470</v>
+        <v>524654</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>584655</v>
+        <v>584092</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6322923117477159</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6013026427058082</v>
+        <v>0.5992281288150445</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6677576194172591</v>
+        <v>0.6671150764960683</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>175990</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>152034</v>
+        <v>153632</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>195036</v>
+        <v>195427</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.392611265489194</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3391684771366426</v>
+        <v>0.3427332896955123</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4351016487341991</v>
+        <v>0.4359733318730657</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>145</v>
@@ -2815,19 +2815,19 @@
         <v>145956</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>125332</v>
+        <v>124800</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>165441</v>
+        <v>164257</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3415824391679531</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2933145106400956</v>
+        <v>0.292071299483067</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3871821448976657</v>
+        <v>0.3844113323792514</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>317</v>
@@ -2836,19 +2836,19 @@
         <v>321946</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>290894</v>
+        <v>291457</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>349079</v>
+        <v>350895</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3677076882522841</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3322423805827405</v>
+        <v>0.3328849235039318</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3986973572941916</v>
+        <v>0.4007718711849557</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>444110</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>420376</v>
+        <v>418143</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>469656</v>
+        <v>468499</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.653231559824942</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6183215725338136</v>
+        <v>0.6150367750587687</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6908065620050706</v>
+        <v>0.6891051695486753</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>413</v>
@@ -2961,19 +2961,19 @@
         <v>443094</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>420954</v>
+        <v>419519</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>464207</v>
+        <v>464919</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7286499671565863</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6922406631846414</v>
+        <v>0.6898822326099776</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7633697573763573</v>
+        <v>0.7645403838701121</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>843</v>
@@ -2982,19 +2982,19 @@
         <v>887204</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>847450</v>
+        <v>853499</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>917745</v>
+        <v>920470</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6888396847840219</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.65797358791736</v>
+        <v>0.6626706093547199</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7125519499601779</v>
+        <v>0.7146674778133617</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>235756</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>210210</v>
+        <v>211367</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>259490</v>
+        <v>261723</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3467684401750581</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3091934379949293</v>
+        <v>0.3108948304513246</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3816784274661864</v>
+        <v>0.3849632249412309</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>156</v>
@@ -3032,19 +3032,19 @@
         <v>165009</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>143896</v>
+        <v>143184</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>187149</v>
+        <v>188584</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2713500328434137</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2366302426236426</v>
+        <v>0.2354596161298879</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3077593368153586</v>
+        <v>0.3101177673900224</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>386</v>
@@ -3053,19 +3053,19 @@
         <v>400765</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>370224</v>
+        <v>367499</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>440519</v>
+        <v>434470</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.311160315215978</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2874480500398222</v>
+        <v>0.2853325221866383</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3420264120826401</v>
+        <v>0.3373293906452798</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>484883</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>459042</v>
+        <v>458519</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>506253</v>
+        <v>508577</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7163853014395185</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.678206421211094</v>
+        <v>0.6774340278632348</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7479582785374389</v>
+        <v>0.7513915273263518</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>503</v>
@@ -3178,19 +3178,19 @@
         <v>533313</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>509062</v>
+        <v>506821</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>555157</v>
+        <v>553695</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.758105668899667</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7236331359660872</v>
+        <v>0.7204469440330304</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7891572381139611</v>
+        <v>0.7870793028217733</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>966</v>
@@ -3199,19 +3199,19 @@
         <v>1018195</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>977736</v>
+        <v>984595</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1050341</v>
+        <v>1051481</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7376479911533893</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7083368546378646</v>
+        <v>0.7133054904577255</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7609366590781845</v>
+        <v>0.7617622615179278</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>191964</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>170594</v>
+        <v>168270</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>217805</v>
+        <v>218328</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2836146985604815</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2520417214625612</v>
+        <v>0.2486084726736481</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3217935787889062</v>
+        <v>0.3225659721367651</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>157</v>
@@ -3249,19 +3249,19 @@
         <v>170168</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>148324</v>
+        <v>149786</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>194419</v>
+        <v>196660</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.241894331100333</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2108427618860389</v>
+        <v>0.2129206971782267</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2763668640339129</v>
+        <v>0.2795530559669697</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>340</v>
@@ -3270,19 +3270,19 @@
         <v>362132</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>329986</v>
+        <v>328846</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>402591</v>
+        <v>395732</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2623520088466107</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2390633409218154</v>
+        <v>0.2382377384820722</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2916631453621354</v>
+        <v>0.2866945095422749</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>429934</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>404747</v>
+        <v>405582</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>454179</v>
+        <v>453716</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7065686809879044</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.665174275307865</v>
+        <v>0.6665475614881416</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7464125444297838</v>
+        <v>0.745652258877033</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>427</v>
@@ -3395,19 +3395,19 @@
         <v>489792</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>468223</v>
+        <v>465284</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>509922</v>
+        <v>507106</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8024588099326249</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.767121066666648</v>
+        <v>0.7623064240704369</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8354395178264523</v>
+        <v>0.8308248722118059</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>809</v>
@@ -3416,19 +3416,19 @@
         <v>919726</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>889797</v>
+        <v>891183</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>952218</v>
+        <v>956138</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7545877579636319</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7300325504776543</v>
+        <v>0.7311694001646081</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7812452108632268</v>
+        <v>0.7844617407078168</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>178548</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>154303</v>
+        <v>154766</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>203735</v>
+        <v>202900</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2934313190120957</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2535874555702163</v>
+        <v>0.2543477411229671</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.334825724692135</v>
+        <v>0.3334524385118582</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>108</v>
@@ -3466,19 +3466,19 @@
         <v>120572</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>100442</v>
+        <v>103258</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>142141</v>
+        <v>145080</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1975411900673752</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1645604821735476</v>
+        <v>0.1691751277881941</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.232878933333352</v>
+        <v>0.237693575929563</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>268</v>
@@ -3487,19 +3487,19 @@
         <v>299120</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>266628</v>
+        <v>262708</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>329049</v>
+        <v>327663</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2454122420363681</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2187547891367733</v>
+        <v>0.215538259292183</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2699674495223458</v>
+        <v>0.2688305998353918</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>284667</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>263757</v>
+        <v>263859</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>303984</v>
+        <v>304997</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.671094192398606</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6217996013088477</v>
+        <v>0.6220408821334126</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7166334929656888</v>
+        <v>0.719022142230215</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>302</v>
@@ -3612,19 +3612,19 @@
         <v>333330</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>312881</v>
+        <v>314123</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>350541</v>
+        <v>352639</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7495233804602737</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7035420172160394</v>
+        <v>0.7063341540858432</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7882227993956783</v>
+        <v>0.7929405576598362</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>561</v>
@@ -3633,19 +3633,19 @@
         <v>617998</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>590354</v>
+        <v>587878</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>647010</v>
+        <v>644611</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7112357751585381</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6794209854742477</v>
+        <v>0.6765721794427146</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7446253920858373</v>
+        <v>0.7418641394661283</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>139516</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>120199</v>
+        <v>119186</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>160426</v>
+        <v>160324</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.328905807601394</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2833665070343109</v>
+        <v>0.2809778577697851</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3782003986911522</v>
+        <v>0.3779591178665878</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>101</v>
@@ -3683,19 +3683,19 @@
         <v>111393</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>94182</v>
+        <v>92084</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>131842</v>
+        <v>130600</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2504766195397263</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2117772006043218</v>
+        <v>0.2070594423401638</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2964579827839607</v>
+        <v>0.2936658459141566</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>230</v>
@@ -3704,19 +3704,19 @@
         <v>250909</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>221897</v>
+        <v>224296</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>278553</v>
+        <v>281029</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2887642248414619</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2553746079141629</v>
+        <v>0.2581358605338718</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3205790145257524</v>
+        <v>0.3234278205572853</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>225898</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>208205</v>
+        <v>210119</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>240258</v>
+        <v>240946</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.7453019736185476</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6869268504004076</v>
+        <v>0.6932417240379967</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7926791223399894</v>
+        <v>0.7949504888649251</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>263</v>
@@ -3829,19 +3829,19 @@
         <v>269499</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>252816</v>
+        <v>254924</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>283181</v>
+        <v>284933</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7755355400777508</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7275293301201351</v>
+        <v>0.7335941248387828</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8149090509103504</v>
+        <v>0.8199506017863976</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>464</v>
@@ -3850,19 +3850,19 @@
         <v>495397</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>473826</v>
+        <v>472823</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>517001</v>
+        <v>516920</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.7614505021892066</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.7282947626811387</v>
+        <v>0.7267524490128842</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7946557998036015</v>
+        <v>0.7945315778792685</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>77198</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>62838</v>
+        <v>62150</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>94891</v>
+        <v>92977</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2546980263814524</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2073208776600105</v>
+        <v>0.2050495111350745</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3130731495995923</v>
+        <v>0.3067582759620033</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>76</v>
@@ -3900,19 +3900,19 @@
         <v>78001</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>64319</v>
+        <v>62567</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>94684</v>
+        <v>92576</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2244644599222491</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1850909490896496</v>
+        <v>0.1800493982136024</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2724706698798649</v>
+        <v>0.266405875161217</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>150</v>
@@ -3921,19 +3921,19 @@
         <v>155200</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>133596</v>
+        <v>133677</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>176771</v>
+        <v>177774</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2385494978107933</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2053442001963982</v>
+        <v>0.2054684221207316</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2717052373188613</v>
+        <v>0.2732475509871158</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>190372</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>174376</v>
+        <v>176738</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>202769</v>
+        <v>203309</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7750613361928305</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7099359039442111</v>
+        <v>0.7195547152596485</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8255336182120584</v>
+        <v>0.8277299985817185</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>272</v>
@@ -4046,19 +4046,19 @@
         <v>302022</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>284009</v>
+        <v>285032</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>319366</v>
+        <v>317118</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7917972425181611</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7445743860954073</v>
+        <v>0.7472567218193389</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8372688358850235</v>
+        <v>0.831374947784452</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>441</v>
@@ -4067,19 +4067,19 @@
         <v>492394</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>468833</v>
+        <v>469151</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>513613</v>
+        <v>513285</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7852417220296727</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7476677370653019</v>
+        <v>0.7481760684337084</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8190805936124753</v>
+        <v>0.8185584711836501</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>55250</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>42853</v>
+        <v>42313</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>71246</v>
+        <v>68884</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2249386638071695</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1744663817879421</v>
+        <v>0.1722700014182816</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.290064096055789</v>
+        <v>0.2804452847403515</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>71</v>
@@ -4117,19 +4117,19 @@
         <v>79416</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>62072</v>
+        <v>64320</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>97429</v>
+        <v>96406</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2082027574818389</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1627311641149761</v>
+        <v>0.1686250522155483</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2554256139045925</v>
+        <v>0.2527432781806613</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>120</v>
@@ -4138,19 +4138,19 @@
         <v>134666</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>113447</v>
+        <v>113775</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>158227</v>
+        <v>157909</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2147582779703273</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1809194063875247</v>
+        <v>0.1814415288163499</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2523322629346981</v>
+        <v>0.2518239315662916</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>2332130</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2276677</v>
+        <v>2279432</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2384210</v>
+        <v>2388084</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6886850885341197</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.672309632892565</v>
+        <v>0.6731231967056954</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.704064408406783</v>
+        <v>0.7052084031844551</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2453</v>
@@ -4263,19 +4263,19 @@
         <v>2652387</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2597305</v>
+        <v>2596012</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2700875</v>
+        <v>2701601</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.7528982484390894</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.7372628323337158</v>
+        <v>0.7368957849215302</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.7666616446995475</v>
+        <v>0.7668678618433383</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4625</v>
@@ -4284,19 +4284,19 @@
         <v>4984518</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4904648</v>
+        <v>4910244</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>5067765</v>
+        <v>5053039</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.7214262102111954</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.7098663499642206</v>
+        <v>0.7106763472629843</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7334748714646159</v>
+        <v>0.7313434982175663</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>1054222</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1002142</v>
+        <v>998268</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1109675</v>
+        <v>1106920</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3113149114658803</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.295935591593217</v>
+        <v>0.2947915968155448</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.327690367107435</v>
+        <v>0.3268768032943042</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>814</v>
@@ -4334,19 +4334,19 @@
         <v>870516</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>822028</v>
+        <v>821302</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>925598</v>
+        <v>926891</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2471017515609106</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2333383553004525</v>
+        <v>0.2331321381566617</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.262737167666284</v>
+        <v>0.2631042150784696</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1811</v>
@@ -4355,19 +4355,19 @@
         <v>1924737</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1841490</v>
+        <v>1856216</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2004607</v>
+        <v>1999011</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2785737897888047</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2665251285353843</v>
+        <v>0.2686565017824337</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2901336500357795</v>
+        <v>0.2893236527370151</v>
       </c>
     </row>
     <row r="27">
@@ -4702,19 +4702,19 @@
         <v>326392</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>307016</v>
+        <v>309396</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>342214</v>
+        <v>342020</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7781185586683083</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7319259384925764</v>
+        <v>0.7376013600151859</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8158382499682819</v>
+        <v>0.8153766361169809</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>320</v>
@@ -4723,19 +4723,19 @@
         <v>314190</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>297802</v>
+        <v>295739</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>328713</v>
+        <v>328620</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7958350653291697</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7543244806123937</v>
+        <v>0.7490988646668152</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.832622217890248</v>
+        <v>0.8323845183389488</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>626</v>
@@ -4744,19 +4744,19 @@
         <v>640582</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>615678</v>
+        <v>616284</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>661301</v>
+        <v>662118</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7867084254437947</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7561234767548647</v>
+        <v>0.7568670628158707</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8121540651434104</v>
+        <v>0.8131565068352968</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>93071</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>77249</v>
+        <v>77443</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>112447</v>
+        <v>110067</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2218814413316918</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1841617500317181</v>
+        <v>0.1846233638830191</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2680740615074234</v>
+        <v>0.2623986399848141</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>83</v>
@@ -4794,19 +4794,19 @@
         <v>80603</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>66080</v>
+        <v>66173</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>96991</v>
+        <v>99054</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2041649346708303</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1673777821097519</v>
+        <v>0.1676154816610512</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2456755193876064</v>
+        <v>0.2509011353331848</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>170</v>
@@ -4815,19 +4815,19 @@
         <v>173674</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>152955</v>
+        <v>152138</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>198578</v>
+        <v>197972</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2132915745562052</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1878459348565897</v>
+        <v>0.1868434931647031</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2438765232451353</v>
+        <v>0.2431329371841292</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>473395</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>453305</v>
+        <v>455227</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>490795</v>
+        <v>490622</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8156253986632691</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7810131205217891</v>
+        <v>0.7843233090149201</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8456053773159865</v>
+        <v>0.8453064570394764</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>466</v>
@@ -4940,19 +4940,19 @@
         <v>453399</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>436079</v>
+        <v>434067</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>471649</v>
+        <v>471588</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8107347030888759</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.77976574636582</v>
+        <v>0.7761682521570963</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8433683036802155</v>
+        <v>0.8432596647311232</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>919</v>
@@ -4961,19 +4961,19 @@
         <v>926793</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>898489</v>
+        <v>901752</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>948936</v>
+        <v>952359</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8132254593237531</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7883898577354724</v>
+        <v>0.7912526982483646</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8326545839819244</v>
+        <v>0.8356581469151475</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>107012</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>89612</v>
+        <v>89785</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>127102</v>
+        <v>125180</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1843746013367308</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1543946226840137</v>
+        <v>0.1546935429605237</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.218986879478211</v>
+        <v>0.21567669098508</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>109</v>
@@ -5011,19 +5011,19 @@
         <v>105845</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>87595</v>
+        <v>87656</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>123165</v>
+        <v>125177</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1892652969111242</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1566316963197843</v>
+        <v>0.1567403352688768</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.22023425363418</v>
+        <v>0.2238317478429037</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>215</v>
@@ -5032,19 +5032,19 @@
         <v>212858</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>190715</v>
+        <v>187292</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>241162</v>
+        <v>237899</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1867745406762469</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1673454160180756</v>
+        <v>0.1643418530848525</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2116101422645275</v>
+        <v>0.2087473017516353</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>550363</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>530172</v>
+        <v>528086</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>570188</v>
+        <v>568717</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.823611804845757</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7933958055674635</v>
+        <v>0.7902750748135472</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8532800257851235</v>
+        <v>0.8510777328615453</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>541</v>
@@ -5157,19 +5157,19 @@
         <v>537258</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>516596</v>
+        <v>517610</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>555605</v>
+        <v>555177</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8263118960987579</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7945333128968953</v>
+        <v>0.7960933373906335</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8545295077991425</v>
+        <v>0.8538714236360584</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1066</v>
@@ -5178,19 +5178,19 @@
         <v>1087621</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1058546</v>
+        <v>1058259</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1115445</v>
+        <v>1114387</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8249433738523247</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8028905324049963</v>
+        <v>0.802672663953804</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8460476065129336</v>
+        <v>0.8452448565263275</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>117868</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>98043</v>
+        <v>99514</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>138059</v>
+        <v>140145</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.176388195154243</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1467199742148764</v>
+        <v>0.1489222671384548</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2066041944325366</v>
+        <v>0.2097249251864529</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>113</v>
@@ -5228,19 +5228,19 @@
         <v>112930</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>94583</v>
+        <v>95011</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>133592</v>
+        <v>132578</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1736881039012421</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1454704922008572</v>
+        <v>0.1461285763639414</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2054666871031046</v>
+        <v>0.2039066626093664</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>225</v>
@@ -5249,19 +5249,19 @@
         <v>230798</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>202974</v>
+        <v>204032</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>259873</v>
+        <v>260160</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1750566261476752</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1539523934870666</v>
+        <v>0.1547551434736724</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1971094675950045</v>
+        <v>0.197327336046196</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>526385</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>504192</v>
+        <v>503232</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>545768</v>
+        <v>544998</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8238718647580884</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7891361274533362</v>
+        <v>0.7876338738374045</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8542096060448736</v>
+        <v>0.8530046304019607</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>508</v>
@@ -5374,19 +5374,19 @@
         <v>549847</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>530239</v>
+        <v>528772</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>565675</v>
+        <v>565308</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8547311750045573</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.8242514010880801</v>
+        <v>0.8219707729360467</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8793357818415446</v>
+        <v>0.8787658659712885</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>981</v>
@@ -5395,19 +5395,19 @@
         <v>1076232</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1047741</v>
+        <v>1049441</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1103576</v>
+        <v>1103890</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.8393542419187634</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.8171342505940351</v>
+        <v>0.8184597523914282</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8606798200651882</v>
+        <v>0.8609252555394834</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>112531</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>93148</v>
+        <v>93918</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>134724</v>
+        <v>135684</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1761281352419116</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1457903939551264</v>
+        <v>0.1469953695980392</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2108638725466637</v>
+        <v>0.2123661261625955</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>89</v>
@@ -5445,19 +5445,19 @@
         <v>93451</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>77623</v>
+        <v>77990</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>113059</v>
+        <v>114526</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1452688249954427</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1206642181584553</v>
+        <v>0.1212341340287116</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1757485989119198</v>
+        <v>0.1780292270639534</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>192</v>
@@ -5466,19 +5466,19 @@
         <v>205982</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>178638</v>
+        <v>178324</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>234473</v>
+        <v>232773</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1606457580812366</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1393201799348116</v>
+        <v>0.1390747444605166</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1828657494059649</v>
+        <v>0.1815402476085713</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>395098</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>377983</v>
+        <v>379338</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>410201</v>
+        <v>412908</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8361569270563801</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7999378942950102</v>
+        <v>0.8028041809880362</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8681215405873914</v>
+        <v>0.8738493097191744</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>371</v>
@@ -5591,19 +5591,19 @@
         <v>425874</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>408958</v>
+        <v>409773</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>440615</v>
+        <v>440222</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8691015283400716</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8345804836628851</v>
+        <v>0.8362451082438382</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8991856495120122</v>
+        <v>0.8983827857902071</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>721</v>
@@ -5612,19 +5612,19 @@
         <v>820970</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>796181</v>
+        <v>796192</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>843180</v>
+        <v>842385</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8529287087243125</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8271747546581112</v>
+        <v>0.8271853636472546</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8760028198483296</v>
+        <v>0.8751772367222757</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>77418</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>62315</v>
+        <v>59608</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>94533</v>
+        <v>93178</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1638430729436199</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1318784594126087</v>
+        <v>0.1261506902808257</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.20006210570499</v>
+        <v>0.1971958190119639</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>56</v>
@@ -5662,19 +5662,19 @@
         <v>64142</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>49401</v>
+        <v>49794</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>81058</v>
+        <v>80243</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1308984716599284</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1008143504879882</v>
+        <v>0.1016172142097928</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1654195163371149</v>
+        <v>0.1637548917561614</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>125</v>
@@ -5683,19 +5683,19 @@
         <v>141561</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>119351</v>
+        <v>120146</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>166350</v>
+        <v>166339</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1470712912756875</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1239971801516705</v>
+        <v>0.124822763277724</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1728252453418887</v>
+        <v>0.1728146363527453</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>267629</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>252197</v>
+        <v>251813</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>280994</v>
+        <v>281908</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.805322947489854</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7588863340743565</v>
+        <v>0.757732579331715</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8455405855729037</v>
+        <v>0.8482898540102073</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>314</v>
@@ -5808,19 +5808,19 @@
         <v>336677</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>323720</v>
+        <v>323419</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>346265</v>
+        <v>347532</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.9009185609713825</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.8662477799603</v>
+        <v>0.8654426256071832</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9265765177182641</v>
+        <v>0.9299669802028659</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>576</v>
@@ -5829,19 +5829,19 @@
         <v>604306</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>585987</v>
+        <v>584849</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>623217</v>
+        <v>622161</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.8559220922912116</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.8299762705917568</v>
+        <v>0.8283642323779047</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8827074351934552</v>
+        <v>0.8812120497780963</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>64696</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>51331</v>
+        <v>50417</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>80128</v>
+        <v>80512</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.194677052510146</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1544594144270963</v>
+        <v>0.1517101459897928</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2411136659256432</v>
+        <v>0.2422674206682851</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>36</v>
@@ -5879,19 +5879,19 @@
         <v>37027</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>27439</v>
+        <v>26172</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>49984</v>
+        <v>50285</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.09908143902861752</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07342348228173581</v>
+        <v>0.07003301979713403</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1337522200396998</v>
+        <v>0.1345573743928167</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>97</v>
@@ -5900,19 +5900,19 @@
         <v>101723</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>82812</v>
+        <v>83868</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>120042</v>
+        <v>121180</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1440779077087883</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1172925648065446</v>
+        <v>0.1187879502219037</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1700237294082429</v>
+        <v>0.1716357676220954</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>219337</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>208147</v>
+        <v>208801</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>229215</v>
+        <v>228264</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8563409515161617</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8126502123540448</v>
+        <v>0.8152057857327415</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8949052675634369</v>
+        <v>0.8911946448372587</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>268</v>
@@ -6025,19 +6025,19 @@
         <v>357757</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>342717</v>
+        <v>342733</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>369480</v>
+        <v>370237</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8999668484713881</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8621345020921189</v>
+        <v>0.86217330377894</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9294574963560677</v>
+        <v>0.9313630477035713</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>525</v>
@@ -6046,19 +6046,19 @@
         <v>577094</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>556951</v>
+        <v>556536</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>592654</v>
+        <v>592241</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8828721463289652</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8520566317155231</v>
+        <v>0.851421009228391</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9066764155767713</v>
+        <v>0.9060458556363813</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>36796</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>26918</v>
+        <v>27869</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>47986</v>
+        <v>47332</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1436590484838383</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1050947324365631</v>
+        <v>0.1088053551627413</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1873497876459553</v>
+        <v>0.1847942142672584</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>31</v>
@@ -6096,19 +6096,19 @@
         <v>39765</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>28042</v>
+        <v>27285</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>54805</v>
+        <v>54789</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.100033151528612</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.07054250364393222</v>
+        <v>0.06863695229642865</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1378654979078802</v>
+        <v>0.1378266962210599</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>75</v>
@@ -6117,19 +6117,19 @@
         <v>76561</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>61001</v>
+        <v>61414</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>96704</v>
+        <v>97119</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1171278536710349</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0933235844232287</v>
+        <v>0.09395414436361865</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1479433682844769</v>
+        <v>0.1485789907716089</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>2758599</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2714850</v>
+        <v>2711521</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2807211</v>
+        <v>2801138</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.8190633996339007</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.8060737342628306</v>
+        <v>0.8050853468678122</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.833496925025938</v>
+        <v>0.831693634732894</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2788</v>
@@ -6242,19 +6242,19 @@
         <v>2975000</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2934203</v>
+        <v>2929293</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>3019692</v>
+        <v>3017180</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.8478768768914284</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.8362497679261964</v>
+        <v>0.8348504443008191</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.8606141705675163</v>
+        <v>0.8598981195037871</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>5414</v>
@@ -6263,19 +6263,19 @@
         <v>5733599</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5670744</v>
+        <v>5667161</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>5792415</v>
+        <v>5793186</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.8337650546168544</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.8246248718989744</v>
+        <v>0.8241038085445173</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.8423180109910781</v>
+        <v>0.842430110436286</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>609393</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>560781</v>
+        <v>566854</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>653142</v>
+        <v>656471</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1809366003660992</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1665030749740618</v>
+        <v>0.1683063652671061</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1939262657371694</v>
+        <v>0.1949146531321881</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>517</v>
@@ -6313,19 +6313,19 @@
         <v>533764</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>489072</v>
+        <v>491584</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>574561</v>
+        <v>579471</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1521231231085716</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1393858294324834</v>
+        <v>0.1401018804962129</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1637502320738036</v>
+        <v>0.1651495556991809</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1099</v>
@@ -6334,19 +6334,19 @@
         <v>1143157</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1084341</v>
+        <v>1083570</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1206012</v>
+        <v>1209595</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1662349453831456</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.157681989008922</v>
+        <v>0.1575698895637139</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1753751281010257</v>
+        <v>0.1758961914554828</v>
       </c>
     </row>
     <row r="27">
@@ -6681,19 +6681,19 @@
         <v>192829</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>163369</v>
+        <v>160030</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>225675</v>
+        <v>224742</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.4781430834951216</v>
+        <v>0.4781430834951217</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.405094148169205</v>
+        <v>0.3968142369397309</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5595882091542488</v>
+        <v>0.5572767611716273</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>106</v>
@@ -6702,19 +6702,19 @@
         <v>183204</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>158402</v>
+        <v>157854</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>207257</v>
+        <v>208134</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5166264359146738</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4466872487667785</v>
+        <v>0.445139944639467</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.584454841673851</v>
+        <v>0.5869270083598668</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>186</v>
@@ -6723,19 +6723,19 @@
         <v>376033</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>337099</v>
+        <v>335442</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>419028</v>
+        <v>414395</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4961490991180226</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4447782890423131</v>
+        <v>0.442591126136487</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5528772680587966</v>
+        <v>0.5467649367612119</v>
       </c>
     </row>
     <row r="5">
@@ -6752,19 +6752,19 @@
         <v>210458</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>177612</v>
+        <v>178545</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>239918</v>
+        <v>243257</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.5218569165048783</v>
+        <v>0.5218569165048784</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4404117908457512</v>
+        <v>0.4427232388283727</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5949058518307948</v>
+        <v>0.6031857630602682</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>96</v>
@@ -6773,19 +6773,19 @@
         <v>171412</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>147359</v>
+        <v>146482</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>196214</v>
+        <v>196762</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4833735640853263</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4155451583261491</v>
+        <v>0.4130729916401327</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5533127512332217</v>
+        <v>0.5548600553605327</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>186</v>
@@ -6794,19 +6794,19 @@
         <v>381871</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>338876</v>
+        <v>343509</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>420805</v>
+        <v>422462</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5038509008819775</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4471227319412034</v>
+        <v>0.4532350632387882</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.555221710957687</v>
+        <v>0.557408873863513</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>304905</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>278303</v>
+        <v>275729</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>333005</v>
+        <v>328628</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.64314370292094</v>
+        <v>0.6431437029209399</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5870301969515518</v>
+        <v>0.5816001989037664</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7024144699316903</v>
+        <v>0.6931826936373066</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>265</v>
@@ -6919,19 +6919,19 @@
         <v>281623</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>255983</v>
+        <v>258966</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>304489</v>
+        <v>303907</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5674013837939148</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5157426139938748</v>
+        <v>0.5217529483007706</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6134694123705333</v>
+        <v>0.6122981713720805</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>462</v>
@@ -6940,19 +6940,19 @@
         <v>586529</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>549779</v>
+        <v>551149</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>622333</v>
+        <v>621095</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6044041173097884</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.566533892412318</v>
+        <v>0.5679452367647113</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6412988855317365</v>
+        <v>0.6400232971812115</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>169181</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>141081</v>
+        <v>145458</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>195783</v>
+        <v>198357</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3568562970790599</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2975855300683097</v>
+        <v>0.3068173063626934</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4129698030484484</v>
+        <v>0.4183998010962334</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>191</v>
@@ -6990,19 +6990,19 @@
         <v>214716</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>191850</v>
+        <v>192432</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>240356</v>
+        <v>237373</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.4325986162060852</v>
+        <v>0.4325986162060851</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3865305876294666</v>
+        <v>0.3877018286279194</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4842573860061253</v>
+        <v>0.4782470516992294</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>294</v>
@@ -7011,19 +7011,19 @@
         <v>383897</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>348093</v>
+        <v>349331</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>420647</v>
+        <v>419277</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3955958826902117</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3587011144682634</v>
+        <v>0.3599767028187886</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4334661075876822</v>
+        <v>0.4320547632352887</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>397931</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>373225</v>
+        <v>374445</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>423228</v>
+        <v>424848</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6516589119861715</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6112000348393667</v>
+        <v>0.6131985633301411</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6930865573267931</v>
+        <v>0.69573848315783</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>535</v>
@@ -7136,19 +7136,19 @@
         <v>387038</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>364829</v>
+        <v>366207</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>408325</v>
+        <v>407548</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.6258013814085147</v>
+        <v>0.6258013814085146</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5898922374632894</v>
+        <v>0.5921200616251054</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6602210910136823</v>
+        <v>0.6589647415503589</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>893</v>
@@ -7157,19 +7157,19 @@
         <v>784968</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>755299</v>
+        <v>753460</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>818214</v>
+        <v>818202</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6386478439179502</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6145086367517021</v>
+        <v>0.613012392054706</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6656961724281989</v>
+        <v>0.6656864573337089</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>212712</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>187415</v>
+        <v>185795</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>237418</v>
+        <v>236198</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3483410880138284</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3069134426732069</v>
+        <v>0.3042615168421701</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3887999651606343</v>
+        <v>0.3868014366698591</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>306</v>
@@ -7207,19 +7207,19 @@
         <v>231429</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>210142</v>
+        <v>210919</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>253638</v>
+        <v>252260</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3741986185914854</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3397789089863177</v>
+        <v>0.3410352584496412</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4101077625367107</v>
+        <v>0.4078799383748946</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>486</v>
@@ -7228,19 +7228,19 @@
         <v>444142</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>410896</v>
+        <v>410908</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>473811</v>
+        <v>475650</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.36135215608205</v>
+        <v>0.3613521560820499</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.334303827571801</v>
+        <v>0.334313542666291</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3854913632482979</v>
+        <v>0.386987607945294</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>439642</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>414383</v>
+        <v>414008</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>467132</v>
+        <v>465532</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.6382254296791176</v>
+        <v>0.6382254296791177</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6015574068809554</v>
+        <v>0.6010132982693109</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6781338271094774</v>
+        <v>0.6758107089875147</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>740</v>
@@ -7353,19 +7353,19 @@
         <v>477288</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>456265</v>
+        <v>456898</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>496555</v>
+        <v>496154</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6603280036088821</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6312421792383243</v>
+        <v>0.632118429820784</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6869834941330166</v>
+        <v>0.6864288482658579</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1161</v>
@@ -7374,19 +7374,19 @@
         <v>916930</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>884067</v>
+        <v>882453</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>950586</v>
+        <v>947794</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6495425388142053</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.626262832036489</v>
+        <v>0.6251191690204646</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6733841405253322</v>
+        <v>0.6714062699174161</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>249208</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>221718</v>
+        <v>223318</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>274467</v>
+        <v>274842</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3617745703208824</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3218661728905227</v>
+        <v>0.3241892910124851</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3984425931190445</v>
+        <v>0.3989867017306892</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>380</v>
@@ -7424,19 +7424,19 @@
         <v>245517</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>226250</v>
+        <v>226651</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>266540</v>
+        <v>265907</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3396719963911179</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3130165058669834</v>
+        <v>0.313571151734142</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3687578207616758</v>
+        <v>0.3678815701792159</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>613</v>
@@ -7445,19 +7445,19 @@
         <v>494725</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>461069</v>
+        <v>463861</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>527588</v>
+        <v>529202</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.3504574611857947</v>
+        <v>0.3504574611857946</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3266158594746678</v>
+        <v>0.3285937300825837</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3737371679635111</v>
+        <v>0.3748808309795355</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>415993</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>392652</v>
+        <v>393600</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>436567</v>
+        <v>438783</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6905203441322387</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6517765911437808</v>
+        <v>0.6533488335841661</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7246717773892822</v>
+        <v>0.7283495430624403</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>715</v>
@@ -7570,19 +7570,19 @@
         <v>433940</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>415943</v>
+        <v>416766</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>448637</v>
+        <v>450017</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.7312202406213478</v>
+        <v>0.7312202406213477</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7008925247961532</v>
+        <v>0.7022796010811458</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7559857824643966</v>
+        <v>0.7583106047277142</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1172</v>
@@ -7591,19 +7591,19 @@
         <v>849933</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>821328</v>
+        <v>824654</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>879260</v>
+        <v>878758</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.710717367089143</v>
+        <v>0.7107173670891431</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6867975528265713</v>
+        <v>0.689578806584679</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7352407626817494</v>
+        <v>0.734820771382002</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>186441</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>165867</v>
+        <v>163651</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>209782</v>
+        <v>208834</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3094796558677613</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2753282226107178</v>
+        <v>0.2716504569375597</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3482234088562192</v>
+        <v>0.3466511664158338</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>262</v>
@@ -7641,19 +7641,19 @@
         <v>159507</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>144810</v>
+        <v>143430</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>177504</v>
+        <v>176681</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2687797593786524</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2440142175356033</v>
+        <v>0.241689395272286</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.299107475203847</v>
+        <v>0.2977203989188542</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>460</v>
@@ -7662,19 +7662,19 @@
         <v>345948</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>316621</v>
+        <v>317123</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>374553</v>
+        <v>371227</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.289282632910857</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2647592373182505</v>
+        <v>0.2651792286179981</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3132024471734287</v>
+        <v>0.3104211934153212</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>270949</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>255563</v>
+        <v>254119</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>286232</v>
+        <v>287223</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6734114166709129</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6351698670291488</v>
+        <v>0.6315812568805982</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7113941900015783</v>
+        <v>0.7138587268491783</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>537</v>
@@ -7787,19 +7787,19 @@
         <v>289125</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>274447</v>
+        <v>273955</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>302167</v>
+        <v>301351</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.6776614494748601</v>
+        <v>0.67766144947486</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6432591054515047</v>
+        <v>0.6421062767919042</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7082305128734834</v>
+        <v>0.7063170234062709</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>918</v>
@@ -7808,19 +7808,19 @@
         <v>560074</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>539894</v>
+        <v>538835</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>582056</v>
+        <v>580610</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.6755987174584517</v>
+        <v>0.6755987174584516</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6512567171920918</v>
+        <v>0.6499789289821694</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7021152506717332</v>
+        <v>0.7003707557932629</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>131404</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>116121</v>
+        <v>115130</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>146790</v>
+        <v>148234</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3265885833290871</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2886058099984216</v>
+        <v>0.2861412731508218</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3648301329708511</v>
+        <v>0.3684187431194019</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>266</v>
@@ -7858,19 +7858,19 @@
         <v>137526</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>124484</v>
+        <v>125300</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>152204</v>
+        <v>152696</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.3223385505251401</v>
+        <v>0.32233855052514</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2917694871265172</v>
+        <v>0.2936829765937286</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3567408945484956</v>
+        <v>0.3578937232080958</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>448</v>
@@ -7879,19 +7879,19 @@
         <v>268930</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>246948</v>
+        <v>248394</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>289110</v>
+        <v>290169</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.3244012825415484</v>
+        <v>0.3244012825415483</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2978847493282668</v>
+        <v>0.299629244206737</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3487432828079081</v>
+        <v>0.3500210710178306</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>215956</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>203610</v>
+        <v>202069</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>230069</v>
+        <v>228144</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.7255905290483976</v>
+        <v>0.7255905290483978</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6841073744540574</v>
+        <v>0.6789326334859115</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7730100180026175</v>
+        <v>0.7665412515234671</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>647</v>
@@ -8004,19 +8004,19 @@
         <v>340115</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>325877</v>
+        <v>326105</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>353388</v>
+        <v>353332</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7553336265671469</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7237137111762743</v>
+        <v>0.72422009833847</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.784808683446472</v>
+        <v>0.7846860800782302</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>973</v>
@@ -8025,19 +8025,19 @@
         <v>556071</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>537954</v>
+        <v>537094</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>575196</v>
+        <v>573032</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.7434975270018898</v>
+        <v>0.7434975270018899</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7192737927642209</v>
+        <v>0.7181245567052031</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7690686463143416</v>
+        <v>0.7661758407092151</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>81672</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>67559</v>
+        <v>69484</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>94018</v>
+        <v>95559</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.2744094709516022</v>
+        <v>0.2744094709516023</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2269899819973822</v>
+        <v>0.2334587484765327</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3158926255459426</v>
+        <v>0.3210673665140882</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>208</v>
@@ -8075,19 +8075,19 @@
         <v>110170</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>96897</v>
+        <v>96953</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>124408</v>
+        <v>124180</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2446663734328531</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2151913165535281</v>
+        <v>0.21531391992177</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2762862888237259</v>
+        <v>0.27577990166153</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>322</v>
@@ -8096,19 +8096,19 @@
         <v>191841</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>172716</v>
+        <v>174880</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>209958</v>
+        <v>210818</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.25650247299811</v>
+        <v>0.2565024729981101</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2309313536856586</v>
+        <v>0.233824159290785</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2807262072357792</v>
+        <v>0.2818754432947969</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>2238205</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2173128</v>
+        <v>2169424</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2298644</v>
+        <v>2305912</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6432952188275232</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6245911562373818</v>
+        <v>0.6235266547119697</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6606664978627604</v>
+        <v>0.6627552828603717</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3545</v>
@@ -8221,19 +8221,19 @@
         <v>2392335</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2340942</v>
+        <v>2336996</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2451871</v>
+        <v>2442346</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.6531773864581415</v>
+        <v>0.6531773864581414</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.6391457221643948</v>
+        <v>0.6380684252720714</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6694325958565666</v>
+        <v>0.6668319240651485</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>5765</v>
@@ -8242,19 +8242,19 @@
         <v>4630539</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4545311</v>
+        <v>4548401</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>4721139</v>
+        <v>4713356</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.6483631387211735</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.6364295694983511</v>
+        <v>0.6368622459084096</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.6610489075515249</v>
+        <v>0.6599590698399581</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>1241076</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1180637</v>
+        <v>1173369</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1306153</v>
+        <v>1309857</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3567047811724767</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3393335021372396</v>
+        <v>0.3372447171396288</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3754088437626181</v>
+        <v>0.3764733452880303</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1709</v>
@@ -8292,19 +8292,19 @@
         <v>1270276</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1210740</v>
+        <v>1220265</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1321669</v>
+        <v>1325615</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.3468226135418585</v>
+        <v>0.3468226135418584</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3305674041434335</v>
+        <v>0.3331680759348513</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3608542778356052</v>
+        <v>0.3619315747279285</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2809</v>
@@ -8313,19 +8313,19 @@
         <v>2511352</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2420752</v>
+        <v>2428535</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2596580</v>
+        <v>2593490</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3516368612788265</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3389510924484757</v>
+        <v>0.3400409301600418</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3635704305016489</v>
+        <v>0.3631377540915906</v>
       </c>
     </row>
     <row r="27">
